--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -1,67 +1,2669 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sooners-my.sharepoint.com/personal/jishanluo_ou_edu/Documents/PH/03Coding_prac/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_F25DC773A252ABDACC1048EAB19C73525BDE58EE" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{22A757C3-ECAE-4428-8610-A234EFA9DB96}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F0E4D3A-F037-4AB2-BE64-64988CB86EE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2700" yWindow="171" windowWidth="12343" windowHeight="6660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{EF90067C-60B8-4FD0-A11D-D2D5664D9AF6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Google Interview (85)" sheetId="1" r:id="rId1"/>
+    <sheet name="Google(85)" sheetId="1" r:id="rId1"/>
+    <sheet name="Algorithm" sheetId="3" r:id="rId2"/>
+    <sheet name="SQL" sheetId="5" r:id="rId3"/>
+    <sheet name="HackerRank" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="329">
   <si>
     <t>Unique Email Addresses</t>
   </si>
   <si>
+    <t>Problem No.</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>First_solve_time</t>
+  </si>
+  <si>
+    <t>First_solve_solution</t>
+  </si>
+  <si>
+    <t>Odd Even Jump</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
     <t>String</t>
   </si>
   <si>
-    <t>Google278</t>
-  </si>
-  <si>
-    <t>Amazon8</t>
-  </si>
-  <si>
-    <t>Adobe5</t>
-  </si>
-  <si>
-    <t>Apple2</t>
-  </si>
-  <si>
-    <t>Microsoft2</t>
-  </si>
-  <si>
-    <t>Odd Even Jump</t>
+    <t>class Solution:
+    def numUniqueEmails(self, emails: List[str]) -&gt; int:
+        res = set()
+        for email in emails:
+            name, domain = email.split("@")
+            name = name.split("+")[0].replace(".", "")
+            res.add(name + "@" + domain)
+        return len(res)</t>
+  </si>
+  <si>
+    <t>License Key Formatting</t>
+  </si>
+  <si>
+    <t>Fruit Into Baskets</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def threeSum(self, nums: List[int]) -&gt; List[List[int]]:
+        res = []
+        nums.sort()
+        for i in range(len(nums)):
+            if nums[i] &gt; 0:
+                break
+            if i == 0 or nums[i - 1] != nums[i]:
+                self.twoSumII(nums, i, res)
+        return res
+    def twoSumII(self, nums: List[int], i: int, res: List[List[int]]):
+        lo, hi = i + 1, len(nums) - 1
+        while (lo &lt; hi):
+            sum = nums[i] + nums[lo] + nums[hi]
+            if sum &lt; 0:
+                lo += 1
+            elif sum &gt; 0:
+                hi -= 1
+            else:
+                res.append([nums[i], nums[lo], nums[hi]])
+                lo += 1
+                hi -= 1
+                while lo &lt; hi and nums[lo] == nums[lo - 1]:
+                    lo += 1</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Companies</t>
+  </si>
+  <si>
+    <t>Facebook
+|
+20
+Google
+|
+7
+ByteDance
+|
+4
+Amazon
+|
+4
+Adobe
+|
+4
+Bloomberg
+|
+4
+Microsoft
+|
+3
+Uber
+|
+3
+Apple
+|
+3
+Flipkart
+|
+2
+Salesforce
+|
+2</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def nextPermutation(self, nums: List[int]) -&gt; None:
+        """
+        Do not return anything, modify nums in-place instead.
+        """
+        i = j = len(nums)-1
+        while i &gt; 0 and nums[i-1] &gt;= nums[i]:
+            i -= 1
+        if i == 0:   # nums are in descending order
+            nums.reverse()
+            return 
+        k = i - 1    # find the last "ascending" position
+        while nums[j] &lt;= nums[k]:
+            j -= 1
+        nums[k], nums[j] = nums[j], nums[k]  
+        l, r = k+1, len(nums)-1  # reverse the second part
+        while l &lt; r:
+            nums[l], nums[r] = nums[r], nums[l]
+            l +=1 ; r -= 1</t>
+  </si>
+  <si>
+    <t>Complement of Base 10 Integer</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Insert into a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Amazon 3 Microsoft 2
+Google 2 Facebook 2
+Atlassian 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution:
+    def insertIntoBST(self, root: TreeNode, val: int) -&gt; TreeNode:
+        # search for arbitrary element in O(logN) time; 
+        # insersion time is also O(logN);
+        # we can insert the node as a child of the leaf:
+        # if val &gt; node.val --&gt; right subtree
+        # if val &lt; node.val --&gt; left subtree
+        if not root:
+            return TreeNode(val)
+        if val &gt; root.val:
+            # insert into the right subtree
+            root.right=self.insertIntoBST(root.right, val)
+        else:
+            # insert into the left subtree
+            root.left=self.insertIntoBST(root.left, val)
+        return root
+        </t>
+  </si>
+  <si>
+    <t>Multiply Strings</t>
+  </si>
+  <si>
+    <t>Math String</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def multiply(self, num1, num2):
+        """
+        :type num1: str
+        :type num2: str
+        :rtype: str
+        """
+        if num1 == '0' or num2 == '0':
+            return '0'
+        ans = 0
+        for i, n1 in enumerate(num2[::-1]):
+            pre = 0
+            curr = 0
+            for j, n2 in enumerate(num1[::-1]):
+                multi = (ord(n1) - ord('0')) * (ord(n2) - ord('0'))
+                first, second = multi // 10, multi % 10
+                curr += (second + pre) * (10 ** j) 
+                pre = first
+            curr += pre * (10 ** len(num1))
+            ans += curr * (10 ** i)
+        return str(ans)</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/fuxuemingzhu/article/details/80681702</t>
+  </si>
+  <si>
+    <t>Facebook 14
+Microsoft 2
+Apple 2
+Google 5
+Amazon 2
+Oracle 2</t>
+  </si>
+  <si>
+    <t>Two Sum III - Data structure design</t>
+  </si>
+  <si>
+    <t>Hash Table
+Design</t>
+  </si>
+  <si>
+    <t>class TwoSum:
+    def __init__(self):
+        """
+        Initialize your data structure here.
+        """
+        self.nums = []
+        self.is_sorted = False
+    def add(self, number: int) -&gt; None:
+        """
+        Add the number to an internal data structure..
+        """
+        # Inserting while maintaining the ascending order.
+        # for index, num in enumerate(self.nums):
+        #     if number &lt;= num:
+        #         self.nums.insert(index, number)
+        #         return
+        ## larger than any number
+        #self.nums.append(number)
+        self.nums.append(number)
+        self.is_sorted = False
+    def find(self, value: int) -&gt; bool:
+        """
+        Find if there exists any pair of numbers which sum is equal to the value.
+        """
+        if not self.is_sorted:
+            self.nums.sort()
+            self.is_sorted = True
+        low, high = 0, len(self.nums)-1
+        while low &lt; high:
+            currSum = self.nums[low] + self.nums[high]
+            if currSum &lt; value:
+                low += 1
+            elif currSum &gt; value:
+                high -= 1
+            else: # currSum == value
+                return True
+        return False
+# Your TwoSum object will be instantiated and called as such:
+# obj = TwoSum()
+# obj.add(number)
+# param_2 = obj.find(value)</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>LinkedIn 21</t>
+  </si>
+  <si>
+    <t>Amazon 3 Paypal 2</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def search(self, nums: List[int], target: int) -&gt; int:
+        # binary search 
+        # the idea is to compare the target value to the middle element in the array
+        left, right = 0, len(nums) - 1
+        while left &lt;= right:
+            pivot = left + (right - left) // 2
+            if nums[pivot] == target:
+                return pivot
+            if target &lt; nums[pivot]:
+                right = pivot - 1
+            else:
+                left = pivot + 1
+        return -1</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>Heap Greedy Sort</t>
+  </si>
+  <si>
+    <t>Amazon
+|
+25
+Bloomberg
+|
+19
+Facebook
+|
+16
+Google
+|
+7
+eBay
+|
+7
+Apple
+|
+4
+Microsoft
+|
+3
+Oracle
+|
+2
+Citadel
+|
+2
+Yandex
+|
+2
+Roblox
+|
+2</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def minMeetingRooms(self, intervals: List[List[int]]) -&gt; int:
+        """using priority queues
+        1. sort the the meeting by the start time
+        2. initialize a new min-heap and add the first meeting's ending time to the heap
+        3. for every meeting room check if the minimum element of the heap
+        4. if the room is free, then extract the topmost element and add it back with the ending time of the current meeting we are processing; if not, then we allocate a new room and add it to the heap
+        5. After processing all the meetings, the size of the heap will tell us the number of rooms allocated. This will be the minimum number of rooms needed to accommodate all the meetings.
+        """
+        # If there is no meeting to schedule then no room needs to be allocated.
+        if not intervals:
+            return 0
+        # The heap initialization
+        free_rooms = []
+        # Sort the meetings in increasing order of their start time.
+        intervals.sort(key= lambda x: x[0])
+        # Add the first meeting. We have to give a new room to the first meeting.
+        heapq.heappush(free_rooms, intervals[0][1])
+        # For all the remaining meeting rooms
+        for i in intervals[1:]:
+            # If the room due to free up the earliest is free, assign that room to this meeting.
+            if free_rooms[0] &lt;= i[0]:
+                heapq.heappop(free_rooms)
+            # If a new room is to be assigned, then also we add to the heap,
+            # If an old room is allocated, then also we have to add to the heap with updated end time.
+            heapq.heappush(free_rooms, i[1])
+        # The size of the heap tells us the minimum rooms required for all the meetings.
+        return len(free_rooms)</t>
+  </si>
+  <si>
+    <t>Rotate Array</t>
+  </si>
+  <si>
+    <t>Facebook
+|
+5
+Microsoft
+|
+2
+Apple
+|
+2</t>
+  </si>
+  <si>
+    <t>class Solution(object):
+    def rotate(self, nums, k):
+        """
+        :type nums: List[int]
+        :type k: int
+        :rtype: None Do not return anything, modify nums in-place instead.
+        """
+        k = k % len(nums)
+        print(k)
+        print(nums[:k])
+        print(nums[len(nums)-k:])
+        nums[:k], nums[k:] = nums[len(nums)-k:], nums[:len(nums)-k]</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>Array Binary Search</t>
+  </si>
+  <si>
+    <t>Amazon
+|
+13
+Microsoft
+|
+4
+Facebook
+|
+3
+Bloomberg
+|
+3
+Adobe
+|
+2</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def searchMatrix(self, matrix: List[List[int]], target: int) -&gt; bool:
+        # using binary search
+        m = len(matrix)
+        if m == 0:
+            return False
+        n = len(matrix[0])
+        # binary search
+        left, right = 0, m * n - 1
+        while left &lt;= right:
+                pivot_idx = (left + right) // 2
+                pivot_element = matrix[pivot_idx // n][pivot_idx % n]
+                if target == pivot_element:
+                    return True
+                else:
+                    if target &lt; pivot_element:
+                        right = pivot_idx-1
+                    else:
+                        left = pivot_idx + 1
+        return False</t>
+  </si>
+  <si>
+    <t>Rotate Image</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def rotate(self, matrix: List[List[int]]) -&gt; None:
+        """
+        Do not return anything, modify matrix in-place instead.
+        """
+        matrix[:] = list(zip(*reversed(matrix)))</t>
+  </si>
+  <si>
+    <t>Cisco
+|
+14
+Apple
+|
+6
+Microsoft
+|
+4
+Amazon
+|
+3
+Facebook
+|
+2
+Nvidia
+|
+2
+Uber
+|
+2</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def rotate(self, matrix: List[List[int]]) -&gt; None:
+        """
+        Do not return anything, modify matrix in-place instead.
+        """
+        n=len(matrix[0]) # the column number of the matrix
+        # transpose the matrix
+        for i in range(n): 
+            for j in range(i,n):
+                matrix[j][i], matrix[i][j] = matrix[i][j], matrix[j][i] 
+        # reverse each row
+        for i in range(n):
+            matrix[i].reverse()</t>
+  </si>
+  <si>
+    <t>Second_solve_solution</t>
+  </si>
+  <si>
+    <t>Repeated DNA Sequences</t>
+  </si>
+  <si>
+    <t>Hash Table
+Bit Manipulation\</t>
+  </si>
+  <si>
+    <t>Amazon
+|
+3
+Apple
+|
+2
+Microsoft
+|
+2</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def findRepeatedDnaSequences(self, s: str) -&gt; List[str]:
+        # using substring and hashset
+        # a sliding window of length L (L=10) 
+        L = 10
+        n = len(s)
+        seen = set()
+        output = set()
+        # iterate over all sequences of length L
+        for begin in range(n-L+1):
+            temp = s[begin:begin+L]
+            if temp in seen:
+                output.add(temp[:])
+            seen.add(temp)
+        return output</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock IV</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Amazon
+|
+10
+Bloomberg
+|
+3
+Google
+|
+3
+Citadel
+|
+2</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def maxProfit(self, k: int, prices) -&gt; int:
+        n = len(prices)
+        # solve special cases
+        if not prices or k == 0:
+            return 0
+        # find all consecutively increasing subsequence
+        transactions = []
+        start = 0
+        end = 0
+        for i in range(1, n):
+            if prices[i] &gt;= prices[i-1]:
+                end = i
+            else:
+                if end &gt; start:
+                    transactions.append([start, end])
+                start = i
+        if end &gt; start:
+            transactions.append([start, end])
+        while len(transactions) &gt; k:
+            # check delete loss
+            delete_index = 0
+            min_delete_loss = math.inf
+            for i in range(len(transactions)):
+                t = transactions[i]
+                profit_loss = prices[t[1]] - prices[t[0]]
+                if profit_loss &lt; min_delete_loss:
+                    min_delete_loss = profit_loss
+                    delete_index = i
+            # check merge loss
+            merge_index = 0
+            min_merge_loss = math.inf
+            for i in range(1, len(transactions)):
+                t1 = transactions[i-1]
+                t2 = transactions[i]
+                profit_loss = prices[t1[1]] - prices[t2[0]]
+                if profit_loss &lt; min_merge_loss:
+                    min_merge_loss = profit_loss
+                    merge_index = i
+            # delete or merge
+            if min_delete_loss &lt;= min_merge_loss:
+                transactions.pop(delete_index)
+            else:
+                transactions[merge_index - 1][1] = transactions[merge_index][1]
+                transactions.pop(merge_index)
+        return sum(prices[j]-prices[i] for i, j in transactions)</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def maxProfit(self, k: int, prices: List[int]) -&gt; int:
+        n = len(prices)
+        # solve special cases
+        if not prices or k==0:
+            return 0
+        if 2*k &gt; n:
+            res = 0
+            for i, j in zip(prices[1:], prices[:-1]):
+                res += max(0, i - j)
+            return res
+        # dp[i][used_k][ishold] = balance
+        # ishold: 0 nothold, 1 hold
+        dp = [[[-math.inf]*2 for _ in range(k+1)] for _ in range(n)]
+        # set starting value
+        dp[0][0][0] = 0
+        dp[0][1][1] = -prices[0]
+        # fill the array
+        for i in range(1, n):
+            for j in range(k+1):
+                # transition equation
+                dp[i][j][0] = max(dp[i-1][j][0], dp[i-1][j][1]+prices[i])
+                # you can't hold stock without any transaction
+                if j &gt; 0:
+                    dp[i][j][1] = max(dp[i-1][j][1], dp[i-1][j-1][0]-prices[i])
+        res = max(dp[n-1][j][0] for j in range(k+1))
+        return res</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Facebook
+|
+25
+Google
+|
+7
+Amazon
+|
+5
+Microsoft
+|
+2
+Qualtrics
+|
+2
+Apple
+|
+2
+DiDi
+|
+2
+Docusign
+|
+2</t>
+  </si>
+  <si>
+    <t>DFS BFS Graph</t>
+  </si>
+  <si>
+    <t># Definition for a Node.
+class Node:
+    def __init__(self, val = 0, neighbors = None):
+        self.val = val
+        self.neighbors = neighbors if neighbors is not None else []
+"""
+class Solution:
+    def __init__(self):
+        self.visited={}
+    def cloneGraph(self, node: 'Node') -&gt; 'Node':
+        # using DFS
+        if not node:
+            return node
+        # if the node was visited before
+        # return the clone from the visited dict
+        if node in self.visited:
+            return self.visited[node]
+        # Create a clone for the given node.
+        # Note that we don't have cloned neighbors as of now, hence [].
+        clone_node = Node(node.val, [])
+        # The key is original node and value being the clone node.
+        self.visited[node] = clone_node
+        # Iterate through the neighbors to generate their clones
+        # and prepare a list of cloned neighbors to be added to the cloned node.
+        if node.neighbors:
+            clone_node.neighbors = [self.cloneGraph(n) for n in node.neighbors]
+        return clone_node</t>
+  </si>
+  <si>
+    <t>Asteroid Collision</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Amazon
+|
+10
+Lyft
+|
+6
+ByteDance
+|
+4
+Google
+|
+2</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def asteroidCollision(self, asteroids: List[int]) -&gt; List[int]:
+        # using stack to solve
+        stack = []
+        for aster in asteroids:
+            while stack and aster &lt; 0 and stack[-1] &gt;= 0:
+                pre = stack.pop()
+                if aster == -pre:
+                    aster = None
+                    break
+                elif -aster &lt; pre:
+                    aster = pre
+            if aster != None:
+                stack.append(aster)
+        return stack</t>
+  </si>
+  <si>
+    <t>Plus One</t>
+  </si>
+  <si>
+    <t>Google
+|
+8
+Amazon
+|
+5
+Facebook
+|
+4
+Apple
+|
+3
+Microsoft
+|
+2
+Adobe
+|
+2
+Capital One
+|
+2</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def plusOne(self, digits: List[int]) -&gt; List[int]:
+        n = len(digits)
+        for i in range(n):
+            index = n-i-1
+            if digits[index]==9:
+                digits[index]=0
+            else:
+                digits[index] += 1 
+                return digits
+        return [1] + digits</t>
+  </si>
+  <si>
+    <t>Hash Table Two Pointers String Sliding Window</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>Facebook
+|
+22
+Amazon
+|
+14
+Google
+|
+8
+Microsoft
+|
+4
+Apple
+|
+4
+Adobe
+|
+4
+Lyft
+|
+4
+Bloomberg
+|
+2
+Snapchat
+|
+2
+ByteDance
+|
+2
+Goldman Sachs
+|
+2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def minWindow(self, s, t):
+    """
+    :type s: str
+    :type t: str
+    :rtype: str
+    """
+    if not t or not s:
+        return ""
+    # Dictionary which keeps a count of all the unique characters in t.
+    dict_t = Counter(t)
+    # Number of unique characters in t, which need to be present in the desired window.
+    required = len(dict_t)
+    # two pointers
+    # left and right pointer
+    l, r = 0, 0
+    # formed is used to keep track of how many unique characters in t are present in the current window in its desired frequency.
+    # e.g. if t is "AABC" then the window must have two A's, one B and one C. Thus formed would be = 3 when all these conditions are met.
+    formed = 0
+    # Dictionary which keeps a count of all the unique characters in the current window.
+    window_counts = {}
+    # ans tuple of the form (window length, left, right)
+    ans = float("inf"), None, None
+    while r &lt; len(s):
+        # Add one character from the right to the window
+        character = s[r]
+        window_counts[character] = window_counts.get(character, 0) + 1
+        # If the frequency of the current character added equals to the desired count in t then increment the formed count by 1.
+        if character in dict_t and window_counts[character] == dict_t[character]:
+            formed += 1
+        # Try and contract the window till the point where it ceases to be 'desirable'.
+        while l &lt;= r and formed == required:
+            character = s[l]
+            # Save the smallest window until now.
+            if r - l + 1 &lt; ans[0]:
+                ans = (r - l + 1, l, r)
+            # The character at the position pointed by the `left` pointer is no longer a part of the window.
+            window_counts[character] -= 1
+            if character in dict_t and window_counts[character] &lt; dict_t[character]:
+                formed -= 1
+            # Move the left pointer ahead, this would help to look for a new window.
+            l += 1    
+        # Keep expanding the window once we are done contracting.
+        r += 1    
+    return "" if ans[0] == float("inf") else s[ans[1] : ans[2] + 1]
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Search in a Sorted Array of Unknown Size</t>
+  </si>
+  <si>
+    <t>Microsoft 2</t>
+  </si>
+  <si>
+    <t># """
+# This is ArrayReader's API interface.
+# You should not implement it, or speculate about its implementation
+# """
+#class ArrayReader:
+#    def get(self, index: int) -&gt; int:
+class Solution:
+    def search(self, reader, target):
+        """
+        :type reader: ArrayReader
+        :type target: int
+        :rtype: int
+        """
+        # binary search
+        # split into 2 subproblems
+        if reader.get(0) == target:
+            return 0
+        # search boundaries
+        left, right = 0, 1
+        while reader.get(right) &lt; target:
+            left = right
+            right &lt;&lt;= 1
+        # binary search
+        while left &lt;= right:
+            pivot = left + ((right - left) &gt;&gt; 1)
+            num = reader.get(pivot)
+            if num == target:
+                return pivot
+            if num &gt; target:
+                right = pivot - 1
+            else:
+                left = pivot + 1
+        # there is no target element
+        return -1</t>
+  </si>
+  <si>
+    <t>Minimum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Tree DFS BFS</t>
+  </si>
+  <si>
+    <t>Facebook
+|
+2
+Apple
+|
+2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Definition for a binary tree node.
+# class TreeNode:
+#     def __init__(self, val=0, left=None, right=None):
+#         self.val = val
+#         self.left = left
+#         self.right = right
+class Solution:
+    def minDepth(self, root):
+        """
+        :type root: TreeNode
+        :rtype: int
+        """
+        # recursion 
+        if not root: 
+            return 0 
+        children = [root.left, root.right]
+        # if we're at leaf node
+        if not any(children):
+            return 1
+        min_depth = float('inf')
+        for c in children:
+            if c:
+                min_depth = min(self.minDepth(c), min_depth)
+        return min_depth + 1 
+        </t>
+  </si>
+  <si>
+    <t>132 Pattern</t>
+  </si>
+  <si>
+    <t>Google
+|
+2
+Amazon
+|
+2
+Oracle
+|
+2</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def find132pattern(self, nums: List[int]) -&gt; bool:
+        # stack 
+        if len(nums) &lt;=2:
+            return False
+        third = float('-inf')
+        stack = []
+        for i in range(len(nums)-1, -1, -1):
+            if nums[i] &lt; third:
+                return True
+            else:
+                while stack and stack[-1] &lt; nums[i]:
+                    third = stack.pop()
+            stack.append(nums[i])
+        return False</t>
+  </si>
+  <si>
+    <t>Bag of Tokens</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>class Solution(object):
+    def bagOfTokensScore(self, tokens, P):
+        tokens.sort()
+        deque = collections.deque(tokens)
+        ans = bns = 0
+        while deque and (P &gt;= deque[0] or bns):
+            while deque and P &gt;= deque[0]:
+                P -= deque.popleft()
+                bns += 1
+            ans = max(ans, bns)
+            if deque and bns:
+                P += deque.pop()
+                bns -= 1
+        return ans</t>
+  </si>
+  <si>
+    <t>Stone Game IV</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t># DFS
+class Solution:
+    def winnerSquareGame(self, n: int) -&gt; bool:
+        #DFS 
+        @lru_cache(maxsize=None)
+        def dfs(remain):
+            if remain == 0:
+                return False
+            sqrt_root = int(remain**0.5)
+            for i in range(1, sqrt_root+1):
+                # if there is any chance to make the opponent lose the game in the next round,
+                #  then the current player will win.
+                if not dfs(remain - i*i):
+                    return True
+            return False
+        return dfs(n)</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def minWindow(self, s: str, t: str) -&gt; str:
+        need, missing = collections.Counter(t), len(t)
+        i = I = J = 0
+        for j, c in enumerate(s, 1):
+            missing -= need[c] &gt; 0
+            need[c] -= 1
+            if not missing:
+                while i &lt; j and need[s[i]] &lt; 0:
+                    need[s[i]] += 1
+                    i += 1
+                if not J or j - i &lt;= J - I:
+                    I, J = i, j
+        return s[I:J]</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Most Two Distinct Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from collections import defaultdict
+class Solution:
+    def lengthOfLongestSubstringTwoDistinct(self, s: 'str') -&gt; 'int':
+        n = len(s) 
+        if n &lt; 3:
+            return n
+        # sliding window left and right pointers
+        left, right = 0, 0
+        # hashmap character -&gt; its rightmost position 
+        # in the sliding window
+        hashmap = defaultdict()
+        max_len = 2
+        while right &lt; n:
+            # slidewindow contains less than 3 characters
+            if len(hashmap) &lt; 3:
+                hashmap[s[right]] = right
+                right += 1
+            # slidewindow contains 3 characters
+            if len(hashmap) == 3:
+                # delete the leftmost character
+                del_idx = min(hashmap.values())
+                del hashmap[s[del_idx]]
+                # move left pointer of the slidewindow
+                left = del_idx + 1
+            max_len = max(max_len, right - left)
+        return max_len
+        </t>
+  </si>
+  <si>
+    <t>Google 4  Microsoft 2</t>
+  </si>
+  <si>
+    <t>Champagne Tower</t>
+  </si>
+  <si>
+    <t>Google 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution:
+    def champagneTower(self, poured: int, query_row: int, query_glass: int) -&gt; float:
+        # Q = (x-1)/2
+        A = [[0]*k for k in range(1,102)]
+        A[0][0] = poured
+        for r in range(query_row+1):
+            for c in range(r+1):
+                q=(A[r][c]-1)/2
+                if q&gt;0:
+                    A[r+1][c] += q
+                    A[r+1][c+1] += q
+        return min(1, A[query_row][query_glass])
+        </t>
+  </si>
+  <si>
+    <t>class Solution:
+    def champagneTower(self, poured: int, query_row: int, query_glass: int) -&gt; float:
+        res = [poured] + [0] * query_row
+        for row in range(1, query_row+1):
+            for i in range(row, -1,-1):
+                res[i]=max(res[i]-1,0)/2+max(res[i-1]-1,0)/2
+        return min(res[query_glass],1)</t>
+  </si>
+  <si>
+    <t>Summary Ranges</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>Capital One 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution:
+    def summaryRanges(self, nums: List[int]) -&gt; List[str]:
+        if not nums:
+            return []
+        # the initial result is[]
+        res, i, start = [], 0, 0
+        while i &lt; len(nums)-1:
+            if nums[i]+1 != nums[i+1]:
+                res.append(self.printRange(nums[start], nums[i]))
+                start = i+1
+            i += 1
+        res.append(self.printRange(nums[start], nums[i]))
+        return res
+    def printRange(self, l, r):
+        if l == r:
+            return str(l)
+        else:
+            return str(l) + "-&gt;" + str(r)
+        </t>
+  </si>
+  <si>
+    <t>Encode N-ary Tree to Binary Tree</t>
+  </si>
+  <si>
+    <t>Flipkart 2</t>
+  </si>
+  <si>
+    <t>"""
+# Definition for a Node.
+class Node(object):
+    def __init__(self, val=None, children=None):
+        self.val = val
+        self.children = children
+"""
+"""
+# Definition for a binary tree node.
+class TreeNode(object):
+    def __init__(self, x):
+        self.val = x
+        self.left = None
+        self.right = None
+"""
+class Codec:
+    def encode(self, root):
+        """Encodes an n-ary tree to a binary tree.
+        :type root: Node
+        :rtype: TreeNode
+        """
+        if not root:
+            return None
+        rootNode = TreeNode(root.val)
+        if len(root.children) &gt; 0:
+            firstChild = root.children[0]
+            rootNode.left = self.encode(firstChild)
+        # the parent for the rest of the children
+        curr = rootNode.left
+        # encode the rest of the children
+        for i in range(1, len(root.children)):
+            curr.right = self.encode(root.children[i])
+            curr = curr.right
+        return rootNode
+    def decode(self, data):
+        """Decodes your binary tree to an n-ary tree.
+        :type data: TreeNode
+        :rtype: Node
+        """
+        if not data:
+            return None
+        rootNode = Node(data.val, [])
+        curr = data.left
+        while curr:
+            rootNode.children.append(self.decode(curr))
+            curr = curr.right
+        return rootNode</t>
+  </si>
+  <si>
+    <t>Maximize Distance to Closest Person</t>
+  </si>
+  <si>
+    <t>Audible
+|
+3
+Amazon
+|
+2
+Microsoft
+|
+2</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def maxDistToClosest(self, seats: List[int]) -&gt; int:
+        ans = 0
+        groups = itertools.groupby(seats)
+        for seat, group in groups:
+            if not seat:
+                ans = max(ans, (len(list(group))+1) // 2)
+        return max(ans, seats.index(1), seats[::-1].index(1))</t>
+  </si>
+  <si>
+    <t>Minimum Height Trees</t>
+  </si>
+  <si>
+    <t>BFS Graph</t>
+  </si>
+  <si>
+    <t>Amazon 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution:
+    def findMinHeightTrees(self, n: int, edges: List[List[int]]) -&gt; List[int]:
+        # DFS
+        if n&lt;=2:
+            return [i for i in range(n)]
+        #build the graph with the adjacent list
+        neighbors=[set() for i in range(n)]
+        for start, end in edges:
+            neighbors[start].add(end)
+            neighbors[end].add(start)
+        # initialize the first layer of leaves
+        leaves=[]
+        for i in range(n):
+            if len(neighbors[i])==1:
+                leaves.append(i)
+        #trim the leaves until reaching the centroids
+        remaining_nodes=n
+        while remaining_nodes&gt;2:
+            remaining_nodes-=len(leaves)
+            new_leaves=[]
+            # remove the current leaves along with the edges
+            while leaves:
+                leaf=leaves.pop()
+                for neighbor in neighbors[leaf]:
+                    neighbors[neighbor].remove(leaf)
+                    if len(neighbors[neighbor]) == 1:
+                        new_leaves.append(neighbor)
+            # prepare for the next round
+            leaves = new_leaves
+        # The remaining nodes are the centroids of the graph
+        return leaves
+    </t>
+  </si>
+  <si>
+    <t>Mirror Reflection</t>
+  </si>
+  <si>
+    <t>Facebook 3</t>
+  </si>
+  <si>
+    <t>class Solution(object):
+    def mirrorReflection(self, p, q):
+        m, n = q, p
+        while m % 2 == 0 and n % 2 == 0:
+            m, n = m / 2, n / 2
+        if m % 2 == 0 and n % 2 == 1:
+            return 0
+        elif m % 2 == 1 and n % 2 == 1:
+            return 1
+        elif m % 2 == 1 and n % 2 == 0:
+            return 2</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Array; Sort</t>
+  </si>
+  <si>
+    <t>Facebook 38
+Amazon 31
+Bloomberg 26
+Google
+|
+10
+Apple
+|
+8
+VMware
+|
+7
+Paypal
+|
+6
+Microsoft
+|
+6
+Goldman Sachs
+|
+5
+Uber
+|
+5
+Cisco
+|
+4
+Palantir Technologies
+|
+4
+eBay
+|
+4
+Adobe
+|
+3
+Twitter
+|
+3
+Oracle
+|
+3
+Yandex
+|
+3
+ByteDance
+|
+3
+IXL
+|
+3
+Square
+|
+2</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def merge(self, intervals: List[List[int]]) -&gt; List[List[int]]:
+        # The case below should be taken into consideration. 
+        # If the interval lists contain no elements, we should get None answer.
+        if intervals is None:
+            return None
+        intervals.sort(key= lambda x: x[0])
+        merged = []
+        for interval in intervals:
+            if len(merged) == 0 or interval[0] &gt; merged[-1][1]:
+                merged.append(interval)
+            else:
+                merged[-1][1] = max(interval[1], merged[-1][1])  
+        return merged</t>
+  </si>
+  <si>
+    <t>Missing Ranges</t>
+  </si>
+  <si>
+    <t>Facebook 10
+Google 3</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def findMissingRanges(self, nums: List[int], lower: int, upper: int) -&gt; List[str]:
+        ans = []
+        for n in nums:
+            if n == lower:
+                lower += 1
+                continue
+            if n &gt; upper:
+                break
+            else:
+                if lower == n-1:
+                    ans.append(str(lower))
+                else:
+                    ans.append(str(lower) + '-&gt;' + str(n-1))
+                lower = n+1
+        if lower &lt;= upper:
+            if lower == upper:
+                ans.append(str(lower))
+            else:
+                ans.append(str(lower) + '-&gt;' + str(upper))
+        return ans</t>
+  </si>
+  <si>
+    <t>Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>Facebook
+|
+24
+Amazon
+|
+7
+Bloomberg
+|
+6
+Microsoft
+|
+3
+Google
+|
+2
+ByteDance
+|
+2</t>
+  </si>
+  <si>
+    <t>Stack; Tree; Design</t>
+  </si>
+  <si>
+    <t># Definition for a binary tree node.
+# class TreeNode:
+#     def __init__(self, val=0, left=None, right=None):
+#         self.val = val
+#         self.left = left
+#         self.right = right
+class BSTIterator:
+    def __init__(self, root: TreeNode):
+        self.nodes_sorted=[]
+        self.index=-1
+        self._inorder(root)
+    def _inorder(self, root):
+        if not root:
+            return
+        self._inorder(root.left)
+        self.nodes_sorted.append(root.val)
+        self._inorder(root.right)
+    def next(self) -&gt; int:
+        """
+        @return the next smallest number
+        """
+        self.index += 1
+        return self.nodes_sorted[self.index]
+    def hasNext(self) -&gt; bool:
+        """
+        @return whether we have a next smallest number
+        """
+        return self.index + 1 &lt; len(self.nodes_sorted)
+# Your BSTIterator object will be instantiated and called as such:
+# obj = BSTIterator(root)
+# param_1 = obj.next()
+# param_2 = obj.hasNext()</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Amazon
+|
+159
+Bloomberg
+|
+43
+Facebook
+|
+23
+Microsoft
+|
+22
+Oracle
+|
+13
+Apple
+|
+13
+Google
+|
+7
+Uber
+|
+6
+eBay
+|
+6
+Goldman Sachs
+|
+5
+DoorDash
+|
+3
+Snapchat
+|
+3
+ByteDance
+|
+3
+Robinhood
+|
+2
+Qualtrics
+|
+2
+Expedia
+|
+2
+Samsung
+|
+2
+Visa
+|
+2
+Citadel
+|
+2
+VMware
+|
+2</t>
+  </si>
+  <si>
+    <t>DFS BFS Union Find</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def numIslands(self, grid: List[List[str]]) -&gt; int:
+        # DFS
+        if not grid:
+            return 0
+        m=len(grid)
+        n=len(grid[0])
+        sum=0
+        for i in range(m):
+            for j in range(n):
+                if grid[i][j]=="0":
+                    continue
+                else:
+                    sum+=1
+                    stack=list()
+                    stack.append([i,j])
+                    while len(stack)!=0:
+                        [p,q]=stack.pop()
+                        if p&gt;=1 and grid[p-1][q]=="1":
+                            stack.append([p-1,q])
+                        if p&lt;m-1 and grid[p+1][q]=="1":
+                            stack.append([p+1,q])
+                        if q &gt;= 1 and grid[p][q-1] == "1":
+                            stack.append([p,q-1])
+                        if q &lt; n - 1 and grid[p][q + 1] == "1":
+                            stack.append([p,q+1])
+                        #mark as visited
+                        grid[p][q] = "0"
+        return sum</t>
+  </si>
+  <si>
+    <t>Hash Table; Binary Search</t>
+  </si>
+  <si>
+    <t>4Sum II</t>
+  </si>
+  <si>
+    <t>Amazon
+|
+3
+Google
+|
+2</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def fourSumCount(self, A: List[int], B: List[int], C: List[int], D: List[int]) -&gt; int:
+        cnt = 0
+        m = {}
+        for a in A:
+            for b in B:
+                m[a + b] = m.get(a + b, 0) + 1
+        for c in C:
+            for d in D:
+                cnt += m.get(-(c + d), 0)
+        return cnt</t>
+  </si>
+  <si>
+    <t>Increasing Triplet Subsequence</t>
+  </si>
+  <si>
+    <t>Amazon3 Google2 Facebook2</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def increasingTriplet(self, nums: List[int]) -&gt; bool:
+        first_num = float("inf")
+        second_num = float("inf")
+        for n in nums:
+            if n &lt;= first_num:
+                first_num = n
+            elif n &lt;= second_num:
+                second_num = n
+            else:
+                return True
+        return False</t>
+  </si>
+  <si>
+    <t>Nested List Weight Sum</t>
+  </si>
+  <si>
+    <t>DFS BFS</t>
+  </si>
+  <si>
+    <t>Facebook 14 Amazon 5 LinkedIn 2</t>
+  </si>
+  <si>
+    <t>class Solution:
+	def depthSum(self, nestedList: List[NestedInteger]) -&gt; int:
+		def dfs(nested_list, depth):
+			total = 0
+			for nested in nested_list:
+				if nested.isInteger():
+					total += nested.getInteger() * depth
+				else:
+					total += dfs(nested.getList(), depth + 1)
+			return total
+		return dfs(nestedList, 1)</t>
+  </si>
+  <si>
+    <t>Check If N and Its Double Exist</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def checkIfExist(self, arr: List[int]) -&gt; bool:
+        seen = set()
+        for i in arr:
+          # if 2 * i in seen or i % 2 == 0 and i // 2 in seen:
+            if 2 * i in seen or i / 2 in seen: # credit to @PeterBohai
+                return True
+            seen.add(i)
+        return False</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>First_time</t>
+  </si>
+  <si>
+    <t>First_time_solution</t>
+  </si>
+  <si>
+    <t>Key words</t>
+  </si>
+  <si>
+    <t>Other's solution</t>
+  </si>
+  <si>
+    <t>Shortest Distance in a Plane</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t># using SQRT, POW functions 
+SELECT
+    ROUND(SQRT(MIN((POW(p1.x - p2.x, 2) + POW(p1.y - p2.y, 2)))), 2) AS shortest
+FROM
+    point_2d p1
+        JOIN
+    point_2d p2 ON p1.x != p2.x OR p1.y != p2.y
+;
+# The condition 'p1.x != p2.x OR p2.y != p2.y' is to avoid calculating the distance of a point with itself. Otherwise, the minimum distance will be always zero.
+# The columns p1.x, p1.y, p2.x and p2.y are for demonstrating. They are not necessary for the final solution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">join
+SQRT()
+POW()
+</t>
+  </si>
+  <si>
+    <t>Consecutive Available Seats</t>
   </si>
   <si>
     <t>Easy</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t># use selfjoin and abs to solve
+# there is only one table in this problem, so we probably need to use self join to solve
+# the result of self join is the Cartesian product of these two tables
+select distinct a.seat_id
+from cinema a join cinema b
+  on abs(a.seat_id - b.seat_id) = 1
+  and a.free = true and b.free = true
+order by a.seat_id
+;</t>
+  </si>
+  <si>
+    <t>self join</t>
+  </si>
+  <si>
+    <t>Friend Requests II: Who Has the Most Friends</t>
+  </si>
+  <si>
+    <t>Amazon 2
+Facebook 3</t>
+  </si>
+  <si>
+    <t># using union 
+SELECT ids AS id, cnt AS num
+FROM
+(
+SELECT ids, count(*) AS cnt
+   FROM
+   (
+        SELECT requester_id AS ids FROM request_accepted
+        UNION ALL
+        SELECT accepter_id FROM request_accepted
+    ) AS tbl1
+   GROUP BY ids
+   ) AS tbl2
+ORDER BY cnt DESC
+LIMIT 1
+;</t>
+  </si>
+  <si>
+    <t>union</t>
+  </si>
+  <si>
+    <t>Customer Placing the Largest Number of Orders</t>
+  </si>
+  <si>
+    <t>Twitter 2
+Amazon 2</t>
+  </si>
+  <si>
+    <t># using limit to solve
+SELECT customer_number
+FROM orders
+GROUP BY customer_number
+ORDER BY COUNT(*) DESC
+LIMIT 1;</t>
+  </si>
+  <si>
+    <t>Investments in 2016</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t># using group by and count
+SELECT SUM(insurance.TIV_2016) AS TIV_2016
+FROM insurance
+WHERE insurance.TIV_2015 IN
+    (
+    SELECT TIV_2015
+    FROM insurance
+    GROUP BY TIV_2015
+    HAVING COUNT(*) &gt; 1
+    )
+    AND CONCAT(LAT, LON) IN
+    (
+    SELECT CONCAT(LAT, LON)
+    FROM insurance
+    GROUP BY LAT, LON
+    HAVING COUNT(*)=1
+    )
+;</t>
+  </si>
+  <si>
+    <t>group by;
+count</t>
+  </si>
+  <si>
+    <t>Find Customer Referee</t>
+  </si>
+  <si>
+    <t>Amazon 2</t>
+  </si>
+  <si>
+    <t># using &lt;&gt; and is null to solve
+SELECT name 
+FROM customer
+WHERE referee_id &lt;&gt;2 OR referee_id IS NULL;</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>Count Student Number in Departments</t>
+  </si>
+  <si>
+    <t># using count and outer join
+# group by will group the students in a department
+# count can help to count the number of records of each department
+SELECT dept_name, COUNT(student_id) AS student_number
+FROM department
+    LEFT OUTER JOIN
+    student ON department.dept_id = student.dept_id
+GROUP BY department.dept_name
+ORDER BY student_number DESC , department.dept_name
+;</t>
+  </si>
+  <si>
+    <t>outer join;
+count</t>
+  </si>
+  <si>
+    <t>SELECT d.dept_name, COUNT(s.student_id) AS student_number
+FROM student s RIGHT JOIN department d ON s.dept_id = d.dept_id
+GROUP BY d.dept_name 
+ORDER BY student_number DESC, d.dept_name;</t>
+  </si>
+  <si>
+    <t>Find Cumulative Salary of an Employee</t>
+  </si>
+  <si>
     <t>Hard</t>
+  </si>
+  <si>
+    <t># using outer join and temporary tables
+SELECT 
+    E1.id,
+    E1.month,
+    (IFNULL(E1.salary,0)+IFNULL(E2.salary,0)+IFNULL(E3.salary,0)) AS Salary
+FROM
+    (SELECT
+        id, MAX(month) AS month
+    FROM
+        Employee
+    GROUP BY id
+    HAVING COUNT(*) &gt; 1) AS maxmonth
+        LEFT JOIN
+    Employee E1 ON (maxmonth.id = E1.id
+        AND maxmonth.month &gt; E1.month)
+        LEFT JOIN
+    Employee E2 ON (E2.id = E1.id
+        AND E2.month = E1.month - 1)
+        LEFT JOIN
+    Employee E3 ON (E3.id = E1.id
+        AND E3.month = E1.month - 2)
+ORDER BY id ASC , month DESC
+;</t>
+  </si>
+  <si>
+    <t>outer join</t>
+  </si>
+  <si>
+    <t>Employee Bonus</t>
+  </si>
+  <si>
+    <t>Netsuite</t>
+  </si>
+  <si>
+    <t># outer join and where
+SELECT Employee.name, Bonus.bonus
+FROM Employee
+LEFT JOIN Bonus ON Employee.empid = Bonus.empid
+WHERE
+    bonus &lt; 1000 OR bonus IS NULL;</t>
+  </si>
+  <si>
+    <t>outer join and where</t>
+  </si>
+  <si>
+    <t>Wining Candidate</t>
+  </si>
+  <si>
+    <t># use join and temporary table to solve
+SELECT name AS 'Name'
+FROM Candidate
+JOIN (SELECT CandidateId
+      FROM Vote
+      GROUP BY CandidateId
+     ORDER BY COUNT(*) DESC
+     LIMIT 1) AS winner
+WHERE Candidate.id = winner.CandidateId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">join and temporary table
+</t>
+  </si>
+  <si>
+    <t>Replace Employee ID With The Unique Identifier</t>
+  </si>
+  <si>
+    <t>Point72</t>
+  </si>
+  <si>
+    <t># left join 
+SELECT eu.unique_id,
+        e.name
+FROM Employees as e
+LEFT JOIN EmployeeUNI as eu
+ON e.id = eu.id;</t>
+  </si>
+  <si>
+    <t>left join</t>
+  </si>
+  <si>
+    <t>Find the Team Size</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t># using window function
+select employee_id, count(*) over(partition by team_id) as team_size
+from employee</t>
+  </si>
+  <si>
+    <t>window function</t>
+  </si>
+  <si>
+    <t># Subquery standalone
+SELECT team_id, COUNT(DISTINCT employee_id) AS team_size
+FROM Employee
+GROUP BY team_id</t>
+  </si>
+  <si>
+    <t>SELECT employee_id, team_size
+FROM Employee AS e
+LEFT JOIN (
+      SELECT team_id, COUNT(DISTINCT employee_id) AS team_size
+      FROM Employee
+      GROUP BY team_id
+) AS teams
+ON e.team_id = teams.team_id</t>
+  </si>
+  <si>
+    <t>Biggest Single Number</t>
+  </si>
+  <si>
+    <t>SELECT
+    MAX(num) AS num
+FROM
+    (SELECT
+        num
+    FROM
+        my_numbers
+    GROUP BY num
+    HAVING COUNT(num) = 1) AS t
+;</t>
+  </si>
+  <si>
+    <t>Managers with at Least 5 Direct Reports</t>
+  </si>
+  <si>
+    <t># using join and temp table 
+SELECT Name
+FROM
+    Employee AS t1 JOIN
+    (SELECT
+        ManagerId
+    FROM
+        Employee
+    GROUP BY ManagerId
+    HAVING COUNT(ManagerId) &gt;= 5) AS t2
+    ON t1.Id = t2.ManagerId
+;</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select name from employee 
+where id in 
+(select managerId from Employee
+group by managerId
+having count(managerId)&gt;=5) </t>
+  </si>
+  <si>
+    <t>Sellers With No Sales</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT seller_name
+FROM seller s
+WHERE seller_id NOT IN (
+    SELECT DISTINCT seller_id 
+    FROM orders
+    WHERE YEAR(sale_date) = 2020
+)
+ORDER BY 1</t>
+  </si>
+  <si>
+    <t>Finding the Missing IDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WITH RECURSIVE id_seq AS (
+    SELECT 1 as continued_id
+    UNION 
+    SELECT continued_id + 1
+    FROM id_seq
+    WHERE continued_id &lt; (SELECT MAX(customer_id) FROM Customers) 
+)
+SELECT continued_id AS ids
+FROM id_seq
+WHERE continued_id NOT IN (SELECT customer_id FROM Customers)  
+</t>
+  </si>
+  <si>
+    <t>Bank Account Summary</t>
+  </si>
+  <si>
+    <t>Optum</t>
+  </si>
+  <si>
+    <t>SELECT
+    user_id,
+    user_name,
+    SUM(change_in_bal) + credit AS credit,
+    IF(SUM(change_in_bal) + credit &lt; 0, "Yes", "No") AS credit_limit_breached
+FROM (
+SELECT
+    U.user_id,
+    U.user_name,
+    U.credit,
+    CASE WHEN U.user_id = T.paid_by THEN -T.amount
+         WHEN U.user_id = T.paid_to THEN +T.amount
+         ELSE 0
+         END
+    AS change_in_bal
+FROM Users U
+LEFT JOIN Transactions T
+ON (U.user_id = T.paid_by OR U.user_id = T.paid_to)
+      ) T
+GROUP BY user_id;</t>
+  </si>
+  <si>
+    <t>Bank Account Summary II</t>
+  </si>
+  <si>
+    <t>select
+    a.name,
+    sum(b.amount) balance
+from
+    Users a
+join
+    Transactions b
+on
+    a.account = b.account
+group by
+    a.account
+having
+    balance &gt; 10000;</t>
+  </si>
+  <si>
+    <t>Reformat Department Table</t>
+  </si>
+  <si>
+    <t># Write your MySQL query statement below
+SELECT 
+    id, 
+    sum( if( month = 'Jan', revenue, null ) ) AS Jan_Revenue,
+    sum( if( month = 'Feb', revenue, null ) ) AS Feb_Revenue,
+    sum( if( month = 'Mar', revenue, null ) ) AS Mar_Revenue,
+    sum( if( month = 'Apr', revenue, null ) ) AS Apr_Revenue,
+    sum( if( month = 'May', revenue, null ) ) AS May_Revenue,
+    sum( if( month = 'Jun', revenue, null ) ) AS Jun_Revenue,
+    sum( if( month = 'Jul', revenue, null ) ) AS Jul_Revenue,
+    sum( if( month = 'Aug', revenue, null ) ) AS Aug_Revenue,
+    sum( if( month = 'Sep', revenue, null ) ) AS Sep_Revenue,
+    sum( if( month = 'Oct', revenue, null ) ) AS Oct_Revenue,
+    sum( if( month = 'Nov', revenue, null ) ) AS Nov_Revenue,
+    sum( if( month = 'Dec', revenue, null ) ) AS Dec_Revenue
+FROM 
+    Department
+GROUP BY 
+    id;</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>All People Report to the Given Manager</t>
+  </si>
+  <si>
+    <t>Amazon 2 
+Google</t>
+  </si>
+  <si>
+    <t>SELECT e1.employee_id
+FROM Employees e1
+JOIN Employees e2
+ON e1.manager_id = e2.employee_id
+JOIN Employees e3
+ON e2.manager_id = e3.employee_id
+WHERE e3.manager_id = 1 AND e1.employee_id != 1;</t>
+  </si>
+  <si>
+    <t>Activity Participants</t>
+  </si>
+  <si>
+    <t>IBM 3</t>
+  </si>
+  <si>
+    <t>SELECT activity 
+FROM friends
+GROUP BY activity
+HAVING COUNT(*)&gt; (select count(*) from friends group by activity order by 1 limit 1)
+and count(*)&lt; (select count(*) from friends group by activity order by 1 desc limit 1)</t>
+  </si>
+  <si>
+    <t>having count(*)
+GROUP by</t>
+  </si>
+  <si>
+    <t>Active Users</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT a.id, (SELECT name FROM Accounts WHERE id=a.id) name
+FROM Logins a, Logins b
+WHERE a.id=b.id AND
+DATEDIFF(a.login_date,b.login_date) BETWEEN 1 AND 4
+GROUP BY a.id, a.login_date
+HAVING COUNT(DISTINCT b.login_date)=4
+;</t>
+  </si>
+  <si>
+    <t>distinct</t>
+  </si>
+  <si>
+    <t>Reported Posts II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT ROUND(AVG(cnt), 2) AS average_daily_percent 
+FROM
+   (
+    SELECT (COUNT(DISTINCT r.post_id)/ COUNT(DISTINCT a.post_id))*100  AS cnt
+    FROM Actions a
+    LEFT JOIN Removals r
+    ON a.post_id = r.post_id
+    WHERE extra='spam' and action = 'report'
+    GROUP BY action_date)  tmp;  </t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>Customers Who Bought Products A and B but Not C</t>
+  </si>
+  <si>
+    <t>select distinct customer_id, customer_name
+from Customers
+where customer_id in
+(
+    select customer_id
+    from Orders
+    where product_name='A'
+) and customer_id in
+(
+    select customer_id
+    from Orders
+    where product_name='B'
+) and customer_id not in
+(
+    select customer_id
+    from Orders
+    where product_name='C'
+)
+;</t>
+  </si>
+  <si>
+    <t>where  distinct</t>
+  </si>
+  <si>
+    <t>Patients With a Condition</t>
+  </si>
+  <si>
+    <t>SELECT * FROM PATIENTS WHERE
+CONDITIONS LIKE '% DIAB1%' OR
+CONDITIONS LIKE 'DIAB1%';</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Trips and Users</t>
+  </si>
+  <si>
+    <t>Amazon 6</t>
+  </si>
+  <si>
+    <t>SELECT Request_at AS Day,
+ROUND(COUNT(IF(Status != 'completed', True, NULL)) / COUNT(*), 2) AS 'Cancellation Rate'
+FROM Trips
+WHERE 
+    (Request_at BETWEEN '2013-10-01' AND '2013-10-03')
+    AND
+    Client_id NOT IN (SELECT Users_Id FROM Users WHERE Banned = 'Yes')
+GROUP BY Request_at;</t>
+  </si>
+  <si>
+    <t>Immediate Food Delivery I</t>
+  </si>
+  <si>
+    <t>DoorDash 2</t>
+  </si>
+  <si>
+    <t>SELECT ROUND(100*AVG(order_date=customer_pref_delivery_date),2) AS immediate_percentage
+FROM Delivery;</t>
+  </si>
+  <si>
+    <t>round() avg</t>
+  </si>
+  <si>
+    <t>All Valid Triplets That Can Represent a Country</t>
+  </si>
+  <si>
+    <t>SELECT a.student_name AS member_A, b.student_name AS member_B, c.student_name AS member_C
+FROM SchoolA a, SchoolB b, SchoolC c
+WHERE (a.student_name&lt;&gt;b.student_name AND a.student_name&lt;&gt;c.student_name AND b.student_name&lt;&gt;c.student_name)
+AND (a.student_id&lt;&gt;b.student_id AND a.student_id&lt;&gt;c.student_id AND b.student_id&lt;&gt;c.student_id)
+;</t>
+  </si>
+  <si>
+    <t>Group Sold Products By The Date</t>
+  </si>
+  <si>
+    <t>Startup</t>
+  </si>
+  <si>
+    <t>SELECT sell_date,
+		COUNT(DISTINCT(product)) AS num_sold, 
+		GROUP_CONCAT(DISTINCT product ORDER BY product ASC SEPARATOR ',') AS products
+FROM Activities
+GROUP BY sell_date
+ORDER BY sell_date ASC;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group_concat() separator </t>
+  </si>
+  <si>
+    <t>Unique Orders and Customers Per Month</t>
+  </si>
+  <si>
+    <t>Whole Food Market</t>
+  </si>
+  <si>
+    <t>SELECT
+ SUBSTRING(order_date, 1, 7) as month,
+ count(distinct order_id) as order_count,
+ count(distinct customer_id) as customer_count
+FROM Orders
+WHERE invoice &gt; 20
+GROUP BY SUBSTRING(order_date, 1, 7)</t>
+  </si>
+  <si>
+    <t>substring count distinct group by</t>
+  </si>
+  <si>
+    <t>Top Travellers</t>
+  </si>
+  <si>
+    <t>SELECT u.name, ifnull(sum(r.distance),0) as travelled_distance
+FROM Users u
+LEFT JOIN Rides r
+on u.id = r.user_id
+group by r.user_id
+order by travelled_distance desc, u.name asc</t>
+  </si>
+  <si>
+    <t>Total Sales Amount by Year</t>
+  </si>
+  <si>
+    <t>SELECT a.product_id, b.product_name, a.report_year, a.total_amount
+FROM (
+    SELECT product_id, '2018' AS report_year,
+        average_daily_sales * (DATEDIFF(LEAST(period_end, '2018-12-31'), GREATEST(period_start, '2018-01-01'))+1) AS total_amount
+    FROM Sales
+    WHERE YEAR(period_start)=2018 OR YEAR(period_end)=2018
+    UNION ALL
+    SELECT product_id, '2019' AS report_year,
+        average_daily_sales * (DATEDIFF(LEAST(period_end, '2019-12-31'), GREATEST(period_start, '2019-01-01'))+1) AS total_amount
+    FROM Sales
+    WHERE YEAR(period_start)&lt;=2019 AND YEAR(period_end)&gt;=2019
+    UNION ALL
+    SELECT product_id, '2020' AS report_year,
+        average_daily_sales * (DATEDIFF(LEAST(period_end, '2020-12-31'), GREATEST(period_start, '2020-01-01'))+1) AS total_amount
+    FROM Sales
+    WHERE YEAR(period_start)=2020 OR YEAR(period_end)=2020
+) a
+LEFT JOIN Product b
+ON a.product_id = b.product_id
+ORDER BY a.product_id, a.report_year</t>
+  </si>
+  <si>
+    <t>Average Salary: Departments VS Company</t>
+  </si>
+  <si>
+    <t># window function to solve
+SELECT DISTINCT pay_month, department_id, 
+(CASE WHEN department_avg_salary &gt; company_avg_salary THEN 'higher'
+     WHEN department_avg_salary &lt; company_avg_salary THEN 'lower'
+     WHEN department_avg_salary = company_avg_salary THEN 'same' END) AS comparison
+FROM (
+SELECT A.employee_id, amount, pay_date,department_id, LEFT(pay_date,7) as pay_month, AVG(amount) OVER(PARTITION BY A.pay_date) AS company_avg_salary,
+AVG(amount) OVER(PARTITION BY A.pay_date, B.department_id) AS department_avg_salary
+FROM salary AS A
+JOIN employee AS B
+ON A.employee_id = B.employee_id) AS temp;</t>
+  </si>
+  <si>
+    <t>Last Person to Fit in the Elevator</t>
+  </si>
+  <si>
+    <t>Wayfair 4</t>
+  </si>
+  <si>
+    <t>SELECT q1.person_name 
+FROM Queue q1 JOIN Queue q2 on q1.turn &gt;= q2.turn
+GROUP BY q1.turn
+HAVING SUM(q2.weight)&lt;=1000
+ORDER BY SUM(q2.weight) DESC
+LIMIT 1
+;</t>
+  </si>
+  <si>
+    <t>Team Scores in Football Tournament</t>
+  </si>
+  <si>
+    <t>Oracle 3</t>
+  </si>
+  <si>
+    <t># window function
+SELECT team_id, team_name, 
+SUM(CASE WHEN team_id=host_team AND host_goals&gt;guest_goals THEN 3 ELSE 0 END) +
+SUM(CASE WHEN team_id=guest_team AND guest_goals&gt;host_goals THEN 3 ELSE 0 END) +
+SUM(CASE WHEN team_id=host_team AND host_goals=guest_goals THEN 1 ELSE 0 END) +
+SUM(CASE WHEN team_id=guest_team AND guest_goals=host_goals THEN 1 ELSE 0 END)
+AS num_points
+FROM Teams
+LEFT JOIN Matches
+ON team_id=host_team OR team_id=guest_team
+GROUP BY team_id
+ORDER BY num_points DESC, team_id ASC
+;</t>
+  </si>
+  <si>
+    <t>Sales Analysis III</t>
+  </si>
+  <si>
+    <t>select s.product_id, product_name
+from Sales s join Product p
+on s.product_id = p.product_id
+group by s.product_id
+having sum(sale_date &lt; '2019-01-01' or sale_date &gt; '2019-03-31') = 0;</t>
+  </si>
+  <si>
+    <t>inner join</t>
+  </si>
+  <si>
+    <t>Immediate Food Delivery II</t>
+  </si>
+  <si>
+    <t># window function
+SELECT  round(avg(case when order_date=customer_pref_delivery_date then 1 else 0 end)*100, 2) 'immediate_percentage'
+FROM Delivery
+WHERE (customer_id, order_date) in (SELECT customer_id, min(order_date)                                         FROM Delivery GROUP BY customer_id)
+;</t>
+  </si>
+  <si>
+    <t>The Most Frequently Ordered Products for Each Customer</t>
+  </si>
+  <si>
+    <t># rank(); window function
+SELECT customer_id, product_id, product_name
+FROM (
+     SELECT O.customer_id, O.product_id, P.product_name,
+            RANK() OVER(PARTITION BY customer_id ORDER BY COUNT(O.product_id)DESC) AS rnk
+     FROM Orders O
+     JOIN Products P
+     ON O.product_id=P.product_id
+     GROUP BY customer_id, product_id
+) temp
+WHERE rnk=1
+ORDER BY customer_id, product_id
+;</t>
+  </si>
+  <si>
+    <t>rank(); window function</t>
+  </si>
+  <si>
+    <t>Game Play Analysis II</t>
+  </si>
+  <si>
+    <t>GSN Games</t>
+  </si>
+  <si>
+    <t>SELECT player_id, device_id
+FROM Activity
+WHERE (player_id, event_date) in (SELECT player_id, min(event_date)
+                                  FROM Activity
+                                  GROUP BY player_id)
+;</t>
+  </si>
+  <si>
+    <t>Second Degree Follower</t>
+  </si>
+  <si>
+    <t>facebook 4 Databricks 2</t>
+  </si>
+  <si>
+    <t>SELECT f1.follower, COUNT(DISTINCT f2.follower) AS num
+FROM follow f1
+INNER JOIN follow f2 ON f1.follower =  f2.followee
+GROUP BY f1.follower
+;</t>
+  </si>
+  <si>
+    <t>User Activity for the Past 30 Days I</t>
+  </si>
+  <si>
+    <t>facebook ; Zoom</t>
+  </si>
+  <si>
+    <t># Datediff(date1, date2) = date1- date2
+SELECT activity_date AS day, COUNT(DISTINCT user_id) AS active_users
+FROM Activity
+WHERE DATEDIFF('2019-07-27', activity_date) &lt; 30
+GROUP BY activity_date
+;</t>
+  </si>
+  <si>
+    <t>datediff()</t>
+  </si>
+  <si>
+    <t>Invalid Tweets</t>
+  </si>
+  <si>
+    <t>SELECT tweet_id
+FROM Tweets
+WHERE char_length(content) &gt; 15
+;</t>
+  </si>
+  <si>
+    <t>Product Sales Analysis II</t>
+  </si>
+  <si>
+    <t>SELECT product_id, SUM(quantity) AS total_quantity
+FROM Sales
+GROUP BY product_id
+;</t>
+  </si>
+  <si>
+    <t>Average Selling Price</t>
+  </si>
+  <si>
+    <t>SELECT a.product_id, ROUND(SUM(b.units*a.price)/SUM(b.units),2) AS average_price
+FROM Prices a
+JOIN UnitsSold b
+ON a.product_id=b.product_id AND (b.purchase_date BETWEEN a.start_date AND a.end_date)
+GROUP BY product_id;</t>
+  </si>
+  <si>
+    <t>Product Sales Analysis I</t>
+  </si>
+  <si>
+    <t>SELECT p.product_name, s.year, s.price
+FROM  (SELECT DISTINCT product_id, year, price FROM Sales) S
+INNER JOIN Product AS p
+USING (product_id)
+;</t>
+  </si>
+  <si>
+    <t>Daily Leads and Partners</t>
+  </si>
+  <si>
+    <t>SELECT date_id, 
+       make_name,
+       COUNT(DISTINCT lead_id) AS unique_leads,
+       COUNT(DISTINCT partner_id) AS unique_partners
+FROM DailySales
+GROUP BY date_id, make_name
+;</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>Game Play Analysis III</t>
+  </si>
+  <si>
+    <t># Method 1--&gt; window function
+SELECT player_id, 
+       event_date, 
+       SUM(games_played)OVER(PARTITION BY player_id ORDER BY event_date) AS games_played_so_far
+FROM Activity
+;
+# Method 2--&gt; self join
+SELECT a1.player_id, 
+       a1.event_date, 
+       SUM(a2.games_played) AS games_played_so_far
+FROM Activity AS a1
+INNER JOIN Activity AS a2
+    ON a1.event_date &gt;= a2.event_date
+       AND a1.player_id = a2.player_id
+GROUP BY a1.player_id, a1.event_date
+;</t>
+  </si>
+  <si>
+    <t>window function;
+self join</t>
+  </si>
+  <si>
+    <t>Game Play Analysis I</t>
+  </si>
+  <si>
+    <t>SELECT player_id, min(event_date) AS first_login
+FROM Activity
+GROUP BY player_id
+;
+# method 2 --&gt; window function
+SELECT DISTINCT player_id, 
+       first_value(event_date)OVER(PARTITION BY player_id ORDER BY event_date) AS first_login 
+FROM Activity
+;</t>
+  </si>
+  <si>
+    <t>List the Products Ordered in a Period</t>
+  </si>
+  <si>
+    <t>select p.product_name,
+sum(o.unit) as unit
+from Products p
+join Orders o
+on p.product_id = o.product_id
+where Left(order_date, 7) = '2020-02'
+group by p.product_name
+having sum(o.unit) &gt;= 100
+;</t>
+  </si>
+  <si>
+    <t>Article Views I</t>
+  </si>
+  <si>
+    <t>LinkedIn 2</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT author_id AS id 
+FROM Views 
+WHERE author_id = viewer_id 
+ORDER BY id
+;</t>
+  </si>
+  <si>
+    <t>Students and Examinations</t>
+  </si>
+  <si>
+    <t>Rolblox</t>
+  </si>
+  <si>
+    <t>SELECT student.student_id,student.student_name,subject.subject_name,COUNT(exam.subject_name) as attended_exams
+FROM Students as student
+JOIN Subjects as subject
+LEFT JOIN Examinations as exam
+ON student.student_id=exam.student_id AND subject.subject_name=exam.subject_name
+GROUP BY student.student_id,subject.subject_name
+ORDER BY student_id,subject_name
+;</t>
+  </si>
+  <si>
+    <t>Apples &amp; Oranges</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>select sale_date, sum(case when fruit='apples' then sold_num else -sold_num end) as diff
+from sales
+group by sale_date
+;</t>
+  </si>
+  <si>
+    <t>Ads Performance</t>
+  </si>
+  <si>
+    <t>SELECT ad_id, IFNULL(ROUND(AVG(CASE WHEN action = 'Clicked' THEN 1
+                         WHEN action = 'Viewed' THEN 0
+                         ELSE NULL END)*100,2),0) AS ctr
+FROM Ads
+GROUP BY ad_id
+ORDER BY ctr DESC, ad_id
+;</t>
+  </si>
+  <si>
+    <t>window functions</t>
+  </si>
+  <si>
+    <t>Friendly Movies Streamed Last Month</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT c.title 
+FROM Content AS c 
+LEFT JOIN TVProgram AS t ON c.content_id = t.content_id 
+WHERE month(t.program_date) = 6 
+AND year(t.program_date) = 2020 
+AND c.Kids_content = 'Y' 
+AND c.content_type='Movies'
+;</t>
+  </si>
+  <si>
+    <t>Fix Names in a Table</t>
+  </si>
+  <si>
+    <t>SELECT user_id, concat(upper(substring(name,1,1)), lower(substring(name,2,length(name)-1))) AS name 
+FROM Users
+ORDER BY user_id
+;</t>
+  </si>
+  <si>
+    <t>concat(string1, string2, ...)
+substring(string, start, length)</t>
+  </si>
+  <si>
+    <t>Average Time of Process per Machine</t>
+  </si>
+  <si>
+    <t>SELECT 
+    machine_id, 
+    ROUND(SUM(CASE WHEN activity_type = "end" THEN timestamp ELSE -timestamp END)/COUNT(DISTINCT process_id), 3) AS processing_time
+FROM Activity
+GROUP BY 1</t>
+  </si>
+  <si>
+    <t>Replace Elements with Greatest Element on Right Side</t>
+  </si>
+  <si>
+    <t>Amazon 4</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def replaceElements(self, arr: List[int]) -&gt; List[int]:
+        mx = -1
+        for i in range(len(arr) - 1, -1, -1):
+            arr[i], mx = mx, max(mx, arr[i])
+        return arr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,13 +2671,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,13 +2726,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -126,7 +2806,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -138,7 +2818,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -185,6 +2865,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -220,6 +2917,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -371,62 +3085,3127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974F67CF-5E0A-4416-A990-264A6D433F57}">
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15:E187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.3046875" customWidth="1"/>
-    <col min="4" max="4" width="5.765625" customWidth="1"/>
-    <col min="9" max="9" width="9.765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>929</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4">
+        <v>44099</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="4">
+        <v>44109</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="4">
+        <v>44110</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="4">
+        <v>44120</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="4">
+        <v>44125</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>76</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="8">
+        <v>44125</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>159</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="4">
+        <v>44129</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E187" xr:uid="{D4BA5E81-CF9A-473B-80C2-44E89ADDF4B1}">
+      <formula1>"Easy, Medium, Hard"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J10" r:id="rId1" xr:uid="{37ECF6EE-424B-438A-91B7-60E359E881C5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C3DA33-FECF-4A74-9045-3ABE030FAAEC}">
+  <dimension ref="A1:I72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.26953125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1009</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>701</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="4">
+        <v>44110</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>170</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="4">
+        <v>44112</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>704</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="4">
+        <v>44112</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>253</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="4">
+        <v>44119</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>975</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B7" s="2">
+        <v>189</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4">
+        <v>44119</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B8" s="2">
+        <v>74</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="4">
+        <v>44120</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>187</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="4">
+        <v>44122</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
+      <c r="B10" s="2">
+        <v>188</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="4">
+        <v>44122</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>133</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="4">
+        <v>44124</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>735</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="4">
+        <v>44125</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>702</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="4">
+        <v>44126</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>111</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="4">
+        <v>44126</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>456</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="4">
+        <v>44127</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>948</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="4">
+        <v>44128</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1510</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="4">
+        <v>44129</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>799</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="4">
+        <v>44130</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>228</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="4">
+        <v>44132</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>431</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="4">
+        <v>44133</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>849</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="4">
+        <v>44133</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>310</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="4">
+        <v>44139</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>858</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="4">
+        <v>44152</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>56</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="4">
+        <v>44153</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>163</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="4">
+        <v>44173</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>173</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="4">
+        <v>44174</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>200</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" s="4">
+        <v>44182</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>454</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="4">
+        <v>44182</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>334</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="4">
+        <v>44183</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>339</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="4">
+        <v>44211</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1346</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="4">
+        <v>44224</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1299</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G32" s="4">
+        <v>44226</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E16 E18:E204" xr:uid="{6960F9A4-06A2-4DCC-B18D-14D1F56497E9}">
+      <formula1>"Easy, Medium, Hard"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F555641A-A8D1-4000-99D8-A89620B49F7D}">
+  <dimension ref="A1:I192"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="26.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.08984375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.26953125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>612</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="11">
+        <v>44107</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>603</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="4">
+        <v>44107</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>602</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="4">
+        <v>44107</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>586</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="4">
+        <v>44108</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>585</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="4">
+        <v>44108</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>584</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="4">
+        <v>44108</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>580</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="4">
+        <v>44108</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>579</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="4">
+        <v>44110</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>577</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="4">
+        <v>44110</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>574</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="4">
+        <v>44112</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>1378</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="4">
+        <v>44119</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>1303</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="4">
+        <v>44119</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>619</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="4">
+        <v>44122</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>570</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="4">
+        <v>44122</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>1607</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="4">
+        <v>44124</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>1613</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="4">
+        <v>44124</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>1555</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="4">
+        <v>44125</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>1587</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="4">
+        <v>44125</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>1179</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="4">
+        <v>44126</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>1270</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="4">
+        <v>44126</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>1355</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22" s="4">
+        <v>44127</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>1454</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="4">
+        <v>44127</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>1132</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="4">
+        <v>44128</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>1398</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="4">
+        <v>44128</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>1527</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="4">
+        <v>44128</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>262</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E27" s="4">
+        <v>44129</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>1173</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" s="4">
+        <v>44132</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>1623</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="4">
+        <v>44132</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>1484</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E30" s="4">
+        <v>44133</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>1565</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E31" s="4">
+        <v>44138</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>1407</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="4">
+        <v>44173</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>1384</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="4">
+        <v>44174</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>615</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="4">
+        <v>44183</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E35" s="4">
+        <v>44184</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>1212</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E36" s="4">
+        <v>44184</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>1084</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="4">
+        <v>44187</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>1174</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E38" s="4">
+        <v>44187</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>1596</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="4">
+        <v>44187</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>512</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E40" s="4">
+        <v>44187</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>614</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E41" s="4">
+        <v>44188</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>1141</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E42" s="4">
+        <v>44188</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>1683</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="4">
+        <v>44189</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>1069</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="4">
+        <v>44189</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>1251</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E45" s="4">
+        <v>44189</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>1068</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="4">
+        <v>44189</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>1693</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="4">
+        <v>44211</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>534</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E48" s="4">
+        <v>44212</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>511</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E49" s="4">
+        <v>44212</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>1327</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E50" s="4">
+        <v>44214</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>1148</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E51" s="4">
+        <v>44224</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>1280</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E52" s="4">
+        <v>44224</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>1445</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E53" s="4">
+        <v>44224</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>1322</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E54" s="4">
+        <v>44225</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>1495</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55" s="4">
+        <v>44225</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>1667</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E56" s="4">
+        <v>44226</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>1661</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E57" s="4">
+        <v>44226</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C192" xr:uid="{C8A2FEFF-917F-4853-9B93-4D8EC5E336F3}">
+      <formula1>"Easy, Medium, Hard"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7953674-7810-4555-BE69-E5A3ED88FEAB}">
+  <dimension ref="B1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.6328125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.26953125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="4"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="4"/>
+      <c r="D2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>